--- a/backend/src/main/docs/2조_테이블정의서.xlsx
+++ b/backend/src/main/docs/2조_테이블정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="10.105.280.55985"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t>테이블설명</t>
   </si>
@@ -1621,6 +1621,15 @@
   </si>
   <si>
     <t>지역 정보</t>
+  </si>
+  <si>
+    <t>평균 점수</t>
+  </si>
+  <si>
+    <t>NUMVER(2,1)</t>
+  </si>
+  <si>
+    <t>TOTAL_COMMENTS</t>
   </si>
 </sst>
 </file>
@@ -3171,10 +3180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R460"/>
+  <dimension ref="A1:R289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A152" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3182,7 +3191,7 @@
     <col min="1" max="1" style="5" width="9.75500011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" style="5" width="23.37999916" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="5" width="20.75499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="6" width="8.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="6" width="11.50500011" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="6" width="8.00500011" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" style="6" width="9.63000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="6" width="5.13000011" customWidth="1" outlineLevel="0"/>
@@ -4235,44 +4244,42 @@
       <c r="A51" s="27">
         <v>22</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="I51" s="27"/>
+      <c r="B51" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
       <c r="Q51" s="27"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="27">
         <v>23</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="27">
-        <v>100</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
+      <c r="B52" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
       <c r="Q52" s="27"/>
     </row>
     <row r="53" spans="1:17">
@@ -4280,10 +4287,10 @@
         <v>24</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>175</v>
@@ -4301,10 +4308,10 @@
         <v>25</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>35</v>
@@ -4318,200 +4325,194 @@
       <c r="I54" s="27"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="A55" s="5">
+        <v>26</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I55" s="27"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="A56" s="5">
+        <v>27</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="27">
+        <v>100</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="13" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="14">
-        <v>45845</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="15"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="14">
+        <v>45845</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="12"/>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="26">
-        <v>1</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="26">
-        <v>2</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>168</v>
@@ -4521,171 +4522,177 @@
         <v>178</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
+      <c r="I67" s="26" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="26">
-        <v>4</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="27">
-        <v>200</v>
-      </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
+        <v>168</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="26">
-        <v>6</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D70" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D70" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="26">
-        <v>100</v>
-      </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
+      <c r="E70" s="27">
+        <v>200</v>
+      </c>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="26">
-        <v>7</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="E71" s="27">
-        <v>1</v>
-      </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I71" s="27" t="s">
-        <v>325</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="26">
+        <v>6</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="26">
+        <v>100</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="26">
+        <v>7</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" s="27">
+        <v>1</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="26">
         <v>8</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B74" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C74" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D74" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27" t="s">
+      <c r="E74" s="27"/>
+      <c r="F74" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27">
+      <c r="G74" s="27"/>
+      <c r="H74" s="27">
         <v>0</v>
       </c>
-      <c r="I72" s="27"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="27">
-        <v>9</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="I73" s="27"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="27">
-        <v>10</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" s="27">
-        <v>100</v>
-      </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
       <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>175</v>
@@ -4700,13 +4707,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>35</v>
@@ -4720,200 +4727,194 @@
       <c r="I76" s="27"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="s">
+      <c r="A77" s="27">
         <v>11</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="B77" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I77" s="27"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
+      <c r="A78" s="27">
+        <v>12</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="27">
+        <v>100</v>
+      </c>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="23"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="13" t="s">
+      <c r="B81" s="21"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="14">
-        <v>45845</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="16"/>
-      <c r="I83" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="15"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="14">
+        <v>45845</v>
+      </c>
+      <c r="F85" s="15"/>
+      <c r="G85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="10" t="s">
+      <c r="B87" s="9"/>
+      <c r="C87" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="12"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="s">
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="2">
-        <v>1</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="2">
-        <v>2</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>255</v>
+        <v>408</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>168</v>
@@ -4923,216 +4924,240 @@
         <v>178</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="I89" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="7"/>
+      <c r="G91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>480</v>
+        <v>222</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>481</v>
+        <v>223</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>482</v>
+        <v>257</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="2">
-        <v>500</v>
-      </c>
-      <c r="F93" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="H93" s="7"/>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>333</v>
+        <v>480</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>439</v>
+        <v>258</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D95" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E95" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="27">
-        <v>10</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>331</v>
+      <c r="A96" s="2">
+        <v>8</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D96" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I96" s="27"/>
+      <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="27">
+      <c r="A97" s="2">
+        <v>9</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="2">
+        <v>100</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="27">
+        <v>10</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I98" s="27"/>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="27">
         <v>11</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B99" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C99" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D99" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="27">
+      <c r="E99" s="27">
         <v>100</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-    </row>
-    <row r="98" spans="1:18">
-      <c r="A98" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:18">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
@@ -5144,6 +5169,15 @@
       <c r="R100" s="5"/>
     </row>
     <row r="101" spans="1:18">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -5154,189 +5188,160 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="103" spans="1:18">
-      <c r="A103" s="13" t="s">
+    <row r="102" spans="1:18">
+      <c r="A102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="21"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="23"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="14">
-        <v>45845</v>
-      </c>
-      <c r="F104" s="15"/>
-      <c r="G104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" s="16"/>
-      <c r="I104" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="A105" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="15"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="14">
+        <v>45845</v>
+      </c>
+      <c r="F106" s="15"/>
+      <c r="G106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="16"/>
+      <c r="I106" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="15"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="10" t="s">
+      <c r="B108" s="9"/>
+      <c r="C108" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="12"/>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="A107" s="1" t="s">
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="A108" s="2">
-        <v>1</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="A109" s="2">
-        <v>2</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G110" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
+      <c r="I110" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
       </c>
@@ -5344,77 +5349,77 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="27">
-        <v>5</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="I112" s="26"/>
+      <c r="A112" s="2">
+        <v>3</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="27">
-        <v>6</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="27">
-        <v>100</v>
-      </c>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
+      <c r="A113" s="2">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="D114" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="D114" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27" t="s">
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="I114" s="27"/>
+      <c r="I114" s="26"/>
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D115" s="27" t="s">
         <v>35</v>
@@ -5428,43 +5433,61 @@
       <c r="I115" s="27"/>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+      <c r="A116" s="27">
+        <v>7</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I116" s="27"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="19"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
+      <c r="A117" s="27">
+        <v>8</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" s="27">
+        <v>100</v>
+      </c>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" s="21"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
@@ -5476,6 +5499,15 @@
       <c r="R118" s="5"/>
     </row>
     <row r="119" spans="1:18">
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
@@ -5486,162 +5518,127 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="121" spans="1:18">
-      <c r="A121" s="13" t="s">
+    <row r="120" spans="1:18">
+      <c r="A120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="21"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="23"/>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-    </row>
-    <row r="122" spans="1:18">
-      <c r="A122" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="14">
-        <v>45845</v>
-      </c>
-      <c r="F122" s="15"/>
-      <c r="G122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="53"/>
-      <c r="I122" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18">
-      <c r="A123" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="15"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="14">
+        <v>45845</v>
+      </c>
+      <c r="F124" s="15"/>
+      <c r="G124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="53"/>
+      <c r="I124" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="15"/>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="10" t="s">
+      <c r="B126" s="9"/>
+      <c r="C126" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="12"/>
-    </row>
-    <row r="125" spans="1:18">
-      <c r="A125" s="1" t="s">
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="12"/>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="I127" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
-      <c r="A126" s="2">
-        <v>1</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18">
-      <c r="A127" s="2">
-        <v>2</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>168</v>
@@ -5651,86 +5648,94 @@
         <v>178</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
+      <c r="I128" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>477</v>
+        <v>233</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E129" s="2">
-        <v>500</v>
-      </c>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="F130" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D131" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E131" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="2">
-        <v>7</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>331</v>
+        <v>5</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
@@ -5739,63 +5744,88 @@
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:18">
-      <c r="A133" s="6">
-        <v>8</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>332</v>
+      <c r="A133" s="2">
+        <v>6</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="2">
         <v>100</v>
       </c>
-      <c r="I133" s="6"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:18">
-      <c r="A134" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
+      <c r="A134" s="2">
+        <v>7</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:18">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
+      <c r="A135" s="6">
+        <v>8</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="6">
+        <v>100</v>
+      </c>
+      <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B136" s="21"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:18">
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
@@ -5807,6 +5837,17 @@
       <c r="R137" s="5"/>
     </row>
     <row r="138" spans="1:18">
+      <c r="A138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="21"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="23"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
@@ -5817,139 +5858,114 @@
       <c r="Q138" s="6"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="140" spans="1:18">
-      <c r="A140" s="13" t="s">
+    <row r="141" spans="1:18">
+      <c r="A141" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-    </row>
-    <row r="141" spans="1:18">
-      <c r="A141" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="14">
-        <v>45845</v>
-      </c>
-      <c r="F141" s="15"/>
-      <c r="G141" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" s="53"/>
-      <c r="I141" s="4" t="s">
-        <v>519</v>
-      </c>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="4" t="s">
-        <v>498</v>
+        <v>340</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="E142" s="14">
+        <v>45845</v>
+      </c>
+      <c r="F142" s="15"/>
+      <c r="G142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="53"/>
+      <c r="I142" s="4" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="9"/>
+      <c r="C143" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="15"/>
+    </row>
+    <row r="144" spans="1:18">
+      <c r="A144" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="9"/>
-      <c r="C143" s="10" t="s">
+      <c r="B144" s="9"/>
+      <c r="C144" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="12"/>
-    </row>
-    <row r="144" spans="1:18">
-      <c r="A144" s="1" t="s">
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="1:18">
+      <c r="A145" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="H145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="I145" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18">
-      <c r="A145" s="2">
-        <v>1</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>272</v>
+        <v>499</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>168</v>
@@ -5959,20 +5975,22 @@
         <v>178</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
+      <c r="I146" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>168</v>
@@ -5989,73 +6007,88 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>501</v>
+        <v>279</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2" t="s">
+      <c r="G148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:18">
+      <c r="A149" s="2">
+        <v>4</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="1:18">
-      <c r="A149" s="3" t="s">
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:18">
+      <c r="A150" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3" t="s">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-    </row>
-    <row r="150" spans="1:18">
-      <c r="A150" s="19"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:18">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+    </row>
+    <row r="152" spans="1:18">
+      <c r="A152" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B151" s="21"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="23"/>
-    </row>
-    <row r="152" spans="1:18">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="I152" s="6"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="23"/>
     </row>
     <row r="154" spans="1:18">
       <c r="J154" s="5"/>
@@ -7862,1984 +7895,806 @@
       <c r="H256" s="22"/>
       <c r="I256" s="23"/>
     </row>
-    <row r="257" spans="1:9">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="6"/>
-      <c r="H257" s="6"/>
-      <c r="I257" s="5"/>
-    </row>
-    <row r="258" spans="1:9">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
-      <c r="C258" s="5"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="6"/>
-      <c r="G258" s="6"/>
-      <c r="H258" s="6"/>
-      <c r="I258" s="5"/>
+    <row r="259" spans="1:9">
+      <c r="A259" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B259" s="13"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13"/>
+      <c r="G259" s="13"/>
+      <c r="H259" s="13"/>
+      <c r="I259" s="13"/>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E260" s="14">
+        <v>45845</v>
+      </c>
+      <c r="F260" s="15"/>
+      <c r="G260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H260" s="16"/>
+      <c r="I260" s="4"/>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B261" s="9"/>
+      <c r="C261" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E261" s="1"/>
+      <c r="F261" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="G261" s="18"/>
+      <c r="H261" s="18"/>
+      <c r="I261" s="15"/>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262" s="9"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="12"/>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="26">
+        <v>1</v>
+      </c>
+      <c r="B264" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D264" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E264" s="26"/>
+      <c r="F264" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G264" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H264" s="26"/>
+      <c r="I264" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="26">
+        <v>2</v>
+      </c>
+      <c r="B265" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="D265" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E265" s="26">
+        <v>50</v>
+      </c>
+      <c r="F265" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G265" s="26"/>
+      <c r="H265" s="26"/>
+      <c r="I265" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="27">
+        <v>3</v>
+      </c>
+      <c r="B266" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C266" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="D266" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E266" s="27"/>
+      <c r="F266" s="27"/>
+      <c r="G266" s="27"/>
+      <c r="H266" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I266" s="27"/>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="27">
+        <v>4</v>
+      </c>
+      <c r="B267" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C267" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="D267" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E267" s="27">
+        <v>100</v>
+      </c>
+      <c r="F267" s="27"/>
+      <c r="G267" s="27"/>
+      <c r="H267" s="27"/>
+      <c r="I267" s="27"/>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="27">
+        <v>5</v>
+      </c>
+      <c r="B268" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C268" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="D268" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E268" s="27"/>
+      <c r="F268" s="27"/>
+      <c r="G268" s="27"/>
+      <c r="H268" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I268" s="27"/>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="33">
+        <v>6</v>
+      </c>
+      <c r="B269" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C269" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="D269" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E269" s="33">
+        <v>100</v>
+      </c>
+      <c r="F269" s="33"/>
+      <c r="G269" s="33"/>
+      <c r="H269" s="33"/>
+      <c r="I269" s="33"/>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="19"/>
+      <c r="B271" s="19"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="20"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="21"/>
+      <c r="C272" s="22"/>
+      <c r="D272" s="22"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="22"/>
+      <c r="H272" s="22"/>
+      <c r="I272" s="23"/>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="13"/>
+      <c r="G275" s="13"/>
+      <c r="H275" s="13"/>
+      <c r="I275" s="13"/>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B276" s="9"/>
+      <c r="C276" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E276" s="14">
+        <v>45845</v>
+      </c>
+      <c r="F276" s="15"/>
+      <c r="G276" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H276" s="16"/>
+      <c r="I276" s="4"/>
     </row>
     <row r="277" spans="1:9">
-      <c r="A277" s="5"/>
-      <c r="B277" s="5"/>
-      <c r="C277" s="5"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6"/>
-      <c r="G277" s="6"/>
-      <c r="H277" s="6"/>
-      <c r="I277" s="5"/>
+      <c r="A277" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B277" s="9"/>
+      <c r="C277" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E277" s="1"/>
+      <c r="F277" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="G277" s="18"/>
+      <c r="H277" s="18"/>
+      <c r="I277" s="15"/>
     </row>
     <row r="278" spans="1:9">
-      <c r="A278" s="5"/>
-      <c r="B278" s="5"/>
-      <c r="C278" s="5"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
-      <c r="G278" s="6"/>
-      <c r="H278" s="6"/>
-      <c r="I278" s="5"/>
+      <c r="A278" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="9"/>
+      <c r="C278" s="10"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="12"/>
     </row>
     <row r="279" spans="1:9">
-      <c r="A279" s="5"/>
-      <c r="B279" s="5"/>
-      <c r="C279" s="5"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="6"/>
-      <c r="I279" s="5"/>
+      <c r="A279" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="280" spans="1:9">
-      <c r="A280" s="137"/>
-      <c r="B280" s="138"/>
-      <c r="C280" s="139"/>
-      <c r="D280" s="137"/>
-      <c r="E280" s="137"/>
-      <c r="F280" s="139"/>
-      <c r="G280" s="139"/>
-      <c r="H280" s="139"/>
-      <c r="I280" s="139"/>
-    </row>
-    <row r="295" spans="1:9">
-      <c r="A295" s="33"/>
-      <c r="B295" s="27"/>
-      <c r="C295" s="27"/>
-      <c r="D295" s="27"/>
-      <c r="E295" s="33"/>
-      <c r="F295" s="33"/>
-      <c r="G295" s="33"/>
-      <c r="H295" s="33"/>
-      <c r="I295" s="33"/>
-    </row>
-    <row r="296" spans="1:9">
-      <c r="A296" s="27"/>
-      <c r="B296" s="27"/>
-      <c r="C296" s="33"/>
-      <c r="D296" s="33"/>
-      <c r="E296" s="27"/>
-      <c r="F296" s="27"/>
-      <c r="G296" s="27"/>
-      <c r="H296" s="33"/>
-      <c r="I296" s="27"/>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="5"/>
-      <c r="B311" s="5"/>
-      <c r="C311" s="5"/>
-      <c r="D311" s="6"/>
-      <c r="E311" s="6"/>
-      <c r="F311" s="6"/>
-      <c r="G311" s="6"/>
-      <c r="H311" s="6"/>
-      <c r="I311" s="5"/>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" s="5"/>
-      <c r="B312" s="5"/>
-      <c r="C312" s="5"/>
-      <c r="D312" s="6"/>
-      <c r="E312" s="6"/>
-      <c r="F312" s="6"/>
-      <c r="G312" s="6"/>
-      <c r="H312" s="6"/>
-      <c r="I312" s="5"/>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B313" s="13"/>
-      <c r="C313" s="13"/>
-      <c r="D313" s="13"/>
-      <c r="E313" s="13"/>
-      <c r="F313" s="13"/>
-      <c r="G313" s="13"/>
-      <c r="H313" s="13"/>
-      <c r="I313" s="13"/>
-    </row>
-    <row r="314" spans="1:9">
-      <c r="A314" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B314" s="9"/>
-      <c r="C314" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E314" s="14">
-        <v>45845</v>
-      </c>
-      <c r="F314" s="15"/>
-      <c r="G314" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H314" s="16"/>
-      <c r="I314" s="4"/>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="A315" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B315" s="9"/>
-      <c r="C315" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E315" s="1"/>
-      <c r="F315" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="G315" s="18"/>
-      <c r="H315" s="18"/>
-      <c r="I315" s="15"/>
-    </row>
-    <row r="316" spans="1:9">
-      <c r="A316" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B316" s="9"/>
-      <c r="C316" s="10"/>
-      <c r="D316" s="11"/>
-      <c r="E316" s="11"/>
-      <c r="F316" s="11"/>
-      <c r="G316" s="11"/>
-      <c r="H316" s="11"/>
-      <c r="I316" s="12"/>
-    </row>
-    <row r="317" spans="1:9">
-      <c r="A317" s="1" t="s">
+      <c r="A280" s="26">
         <v>1</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B280" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="D280" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E280" s="26"/>
+      <c r="F280" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G280" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H280" s="26"/>
+      <c r="I280" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="26">
         <v>2</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="B281" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D281" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E281" s="26"/>
+      <c r="F281" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G281" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H281" s="26"/>
+      <c r="I281" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="27">
         <v>3</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="B282" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="C282" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E282" s="6">
+        <v>500</v>
+      </c>
+      <c r="F282" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G282" s="27"/>
+      <c r="I282" s="27"/>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="27">
         <v>4</v>
       </c>
-      <c r="E317" s="1" t="s">
+      <c r="B283" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D283" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E283" s="27"/>
+      <c r="H283" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="27">
         <v>5</v>
       </c>
-      <c r="F317" s="1" t="s">
+      <c r="B284" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D284" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E284" s="27">
+        <v>100</v>
+      </c>
+      <c r="H284" s="27"/>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="33">
         <v>6</v>
       </c>
-      <c r="G317" s="1" t="s">
+      <c r="B285" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E285" s="27"/>
+      <c r="H285" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="6">
         <v>7</v>
       </c>
-      <c r="H317" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I317" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
-      <c r="A318" s="26">
-        <v>1</v>
-      </c>
-      <c r="B318" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="C318" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="D318" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E318" s="26"/>
-      <c r="F318" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G318" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H318" s="26"/>
-      <c r="I318" s="26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
-      <c r="A319" s="26">
-        <v>2</v>
-      </c>
-      <c r="B319" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C319" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="D319" s="26" t="s">
+      <c r="B286" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D286" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E319" s="26">
-        <v>50</v>
-      </c>
-      <c r="F319" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G319" s="26"/>
-      <c r="H319" s="26"/>
-      <c r="I319" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" s="27">
-        <v>3</v>
-      </c>
-      <c r="B320" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C320" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="D320" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E320" s="27"/>
-      <c r="F320" s="27"/>
-      <c r="G320" s="27"/>
-      <c r="H320" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="I320" s="27"/>
-    </row>
-    <row r="321" spans="1:9">
-      <c r="A321" s="27">
-        <v>4</v>
-      </c>
-      <c r="B321" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="C321" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="D321" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E321" s="27">
+      <c r="E286" s="33">
         <v>100</v>
       </c>
-      <c r="F321" s="27"/>
-      <c r="G321" s="27"/>
-      <c r="H321" s="27"/>
-      <c r="I321" s="27"/>
-    </row>
-    <row r="322" spans="1:9">
-      <c r="A322" s="27">
-        <v>5</v>
-      </c>
-      <c r="B322" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C322" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="D322" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E322" s="27"/>
-      <c r="F322" s="27"/>
-      <c r="G322" s="27"/>
-      <c r="H322" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="I322" s="27"/>
-    </row>
-    <row r="323" spans="1:9">
-      <c r="A323" s="33">
-        <v>6</v>
-      </c>
-      <c r="B323" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="C323" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="D323" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E323" s="33">
-        <v>100</v>
-      </c>
-      <c r="F323" s="33"/>
-      <c r="G323" s="33"/>
-      <c r="H323" s="33"/>
-      <c r="I323" s="33"/>
-    </row>
-    <row r="324" spans="1:9">
-      <c r="A324" s="3" t="s">
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B324" s="3"/>
-      <c r="C324" s="3" t="s">
+      <c r="B287" s="3"/>
+      <c r="C287" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D324" s="3"/>
-      <c r="E324" s="3"/>
-      <c r="F324" s="3"/>
-      <c r="G324" s="3"/>
-      <c r="H324" s="3"/>
-      <c r="I324" s="3"/>
-    </row>
-    <row r="325" spans="1:9">
-      <c r="A325" s="19"/>
-      <c r="B325" s="19"/>
-      <c r="C325" s="20"/>
-      <c r="D325" s="20"/>
-      <c r="E325" s="20"/>
-      <c r="F325" s="20"/>
-      <c r="G325" s="20"/>
-      <c r="H325" s="20"/>
-      <c r="I325" s="20"/>
-    </row>
-    <row r="326" spans="1:9">
-      <c r="A326" s="3" t="s">
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="19"/>
+      <c r="B288" s="19"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="20"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="20"/>
+      <c r="I288" s="20"/>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B326" s="21"/>
-      <c r="C326" s="22"/>
-      <c r="D326" s="22"/>
-      <c r="E326" s="22"/>
-      <c r="F326" s="22"/>
-      <c r="G326" s="22"/>
-      <c r="H326" s="22"/>
-      <c r="I326" s="23"/>
-    </row>
-    <row r="327" spans="1:9">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
-      <c r="I327" s="2"/>
-    </row>
-    <row r="328" spans="1:9">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
-      <c r="F328" s="2"/>
-      <c r="G328" s="2"/>
-      <c r="H328" s="2"/>
-      <c r="I328" s="2"/>
-    </row>
-    <row r="329" spans="1:9">
-      <c r="A329" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B329" s="13"/>
-      <c r="C329" s="13"/>
-      <c r="D329" s="13"/>
-      <c r="E329" s="13"/>
-      <c r="F329" s="13"/>
-      <c r="G329" s="13"/>
-      <c r="H329" s="13"/>
-      <c r="I329" s="13"/>
-    </row>
-    <row r="330" spans="1:9">
-      <c r="A330" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B330" s="9"/>
-      <c r="C330" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E330" s="14">
-        <v>45845</v>
-      </c>
-      <c r="F330" s="15"/>
-      <c r="G330" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H330" s="16"/>
-      <c r="I330" s="4"/>
-    </row>
-    <row r="331" spans="1:9">
-      <c r="A331" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B331" s="9"/>
-      <c r="C331" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E331" s="1"/>
-      <c r="F331" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="G331" s="18"/>
-      <c r="H331" s="18"/>
-      <c r="I331" s="15"/>
-    </row>
-    <row r="332" spans="1:9">
-      <c r="A332" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B332" s="9"/>
-      <c r="C332" s="10"/>
-      <c r="D332" s="11"/>
-      <c r="E332" s="11"/>
-      <c r="F332" s="11"/>
-      <c r="G332" s="11"/>
-      <c r="H332" s="11"/>
-      <c r="I332" s="12"/>
-    </row>
-    <row r="333" spans="1:9">
-      <c r="A333" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I333" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
-      <c r="A334" s="26">
-        <v>1</v>
-      </c>
-      <c r="B334" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="C334" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="D334" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E334" s="26"/>
-      <c r="F334" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G334" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H334" s="26"/>
-      <c r="I334" s="26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9">
-      <c r="A335" s="26">
-        <v>2</v>
-      </c>
-      <c r="B335" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C335" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D335" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E335" s="26"/>
-      <c r="F335" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G335" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H335" s="26"/>
-      <c r="I335" s="26" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9">
-      <c r="A336" s="27">
-        <v>3</v>
-      </c>
-      <c r="B336" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="C336" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E336" s="6">
-        <v>500</v>
-      </c>
-      <c r="F336" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="G336" s="27"/>
-      <c r="H336" s="6"/>
-      <c r="I336" s="27"/>
-    </row>
-    <row r="337" spans="1:9">
-      <c r="A337" s="27">
-        <v>4</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D337" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E337" s="27"/>
-      <c r="F337" s="6"/>
-      <c r="G337" s="6"/>
-      <c r="H337" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="I337" s="5"/>
-    </row>
-    <row r="338" spans="1:9">
-      <c r="A338" s="27">
-        <v>5</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D338" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E338" s="27">
-        <v>100</v>
-      </c>
-      <c r="F338" s="6"/>
-      <c r="G338" s="6"/>
-      <c r="H338" s="27"/>
-      <c r="I338" s="5"/>
-    </row>
-    <row r="339" spans="1:9">
-      <c r="A339" s="33">
-        <v>6</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="D339" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E339" s="27"/>
-      <c r="F339" s="6"/>
-      <c r="G339" s="6"/>
-      <c r="H339" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="I339" s="5"/>
-    </row>
-    <row r="340" spans="1:9">
-      <c r="A340" s="6">
-        <v>7</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D340" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E340" s="33">
-        <v>100</v>
-      </c>
-      <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
-    </row>
-    <row r="341" spans="1:9">
-      <c r="A341" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B341" s="3"/>
-      <c r="C341" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
-      <c r="I341" s="3"/>
-    </row>
-    <row r="342" spans="1:9">
-      <c r="A342" s="19"/>
-      <c r="B342" s="19"/>
-      <c r="C342" s="20"/>
-      <c r="D342" s="20"/>
-      <c r="E342" s="20"/>
-      <c r="F342" s="20"/>
-      <c r="G342" s="20"/>
-      <c r="H342" s="20"/>
-      <c r="I342" s="20"/>
-    </row>
-    <row r="343" spans="1:9">
-      <c r="A343" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B343" s="21"/>
-      <c r="C343" s="22"/>
-      <c r="D343" s="22"/>
-      <c r="E343" s="22"/>
-      <c r="F343" s="22"/>
-      <c r="G343" s="22"/>
-      <c r="H343" s="22"/>
-      <c r="I343" s="23"/>
-    </row>
-    <row r="344" spans="1:9">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-    </row>
-    <row r="345" spans="1:9">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-      <c r="F345" s="2"/>
-      <c r="G345" s="2"/>
-      <c r="H345" s="2"/>
-      <c r="I345" s="2"/>
-    </row>
-    <row r="346" spans="1:9">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-      <c r="I346" s="2"/>
-    </row>
-    <row r="347" spans="1:9">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
-      <c r="E347" s="2"/>
-      <c r="F347" s="2"/>
-      <c r="G347" s="2"/>
-      <c r="H347" s="2"/>
-      <c r="I347" s="2"/>
-    </row>
-    <row r="348" spans="1:9">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
-      <c r="F348" s="2"/>
-      <c r="G348" s="2"/>
-      <c r="H348" s="2"/>
-      <c r="I348" s="2"/>
-    </row>
-    <row r="349" spans="1:9">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
-      <c r="F349" s="2"/>
-      <c r="G349" s="2"/>
-      <c r="H349" s="2"/>
-      <c r="I349" s="2"/>
-    </row>
-    <row r="350" spans="1:9">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
-      <c r="E350" s="2"/>
-      <c r="F350" s="2"/>
-      <c r="G350" s="2"/>
-      <c r="H350" s="2"/>
-      <c r="I350" s="2"/>
-    </row>
-    <row r="351" spans="1:9">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
-      <c r="F351" s="2"/>
-      <c r="G351" s="2"/>
-      <c r="H351" s="2"/>
-      <c r="I351" s="2"/>
-    </row>
-    <row r="352" spans="1:9">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
-      <c r="E352" s="2"/>
-      <c r="F352" s="2"/>
-      <c r="G352" s="2"/>
-      <c r="H352" s="2"/>
-      <c r="I352" s="2"/>
-    </row>
-    <row r="353" spans="1:9">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
-      <c r="F353" s="2"/>
-      <c r="G353" s="2"/>
-      <c r="H353" s="2"/>
-      <c r="I353" s="2"/>
-    </row>
-    <row r="354" spans="1:9">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
-      <c r="I354" s="2"/>
-    </row>
-    <row r="355" spans="1:9">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
-      <c r="H355" s="2"/>
-      <c r="I355" s="2"/>
-    </row>
-    <row r="356" spans="1:9">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-    </row>
-    <row r="357" spans="1:9">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
-      <c r="E357" s="2"/>
-      <c r="F357" s="2"/>
-      <c r="G357" s="2"/>
-      <c r="H357" s="2"/>
-      <c r="I357" s="2"/>
-    </row>
-    <row r="358" spans="1:9">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
-      <c r="F358" s="2"/>
-      <c r="G358" s="2"/>
-      <c r="H358" s="2"/>
-      <c r="I358" s="2"/>
-    </row>
-    <row r="359" spans="1:9">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
-      <c r="H359" s="2"/>
-      <c r="I359" s="2"/>
-    </row>
-    <row r="360" spans="1:9">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-      <c r="G360" s="2"/>
-      <c r="H360" s="2"/>
-      <c r="I360" s="2"/>
-    </row>
-    <row r="361" spans="1:9">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
-      <c r="G361" s="2"/>
-      <c r="H361" s="2"/>
-      <c r="I361" s="2"/>
-    </row>
-    <row r="362" spans="1:9">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
-      <c r="H362" s="2"/>
-      <c r="I362" s="2"/>
-    </row>
-    <row r="363" spans="1:9">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="2"/>
-      <c r="G363" s="2"/>
-      <c r="H363" s="2"/>
-      <c r="I363" s="2"/>
-    </row>
-    <row r="364" spans="1:9">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
-      <c r="F364" s="2"/>
-      <c r="G364" s="2"/>
-      <c r="H364" s="2"/>
-      <c r="I364" s="2"/>
-    </row>
-    <row r="365" spans="1:9">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
-      <c r="G365" s="2"/>
-      <c r="H365" s="2"/>
-      <c r="I365" s="2"/>
-    </row>
-    <row r="366" spans="1:9">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
-      <c r="F366" s="2"/>
-      <c r="G366" s="2"/>
-      <c r="H366" s="2"/>
-      <c r="I366" s="2"/>
-    </row>
-    <row r="367" spans="1:9">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="2"/>
-      <c r="G367" s="2"/>
-      <c r="H367" s="2"/>
-      <c r="I367" s="2"/>
-    </row>
-    <row r="368" spans="1:9">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-      <c r="H368" s="2"/>
-      <c r="I368" s="2"/>
-    </row>
-    <row r="369" spans="1:9">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
-      <c r="G369" s="2"/>
-      <c r="H369" s="2"/>
-      <c r="I369" s="2"/>
-    </row>
-    <row r="370" spans="1:9">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
-      <c r="F370" s="2"/>
-      <c r="G370" s="2"/>
-      <c r="H370" s="2"/>
-      <c r="I370" s="2"/>
-    </row>
-    <row r="371" spans="1:9">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
-      <c r="E371" s="2"/>
-      <c r="F371" s="2"/>
-      <c r="G371" s="2"/>
-      <c r="H371" s="2"/>
-      <c r="I371" s="2"/>
-    </row>
-    <row r="372" spans="1:9">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="2"/>
-      <c r="G372" s="2"/>
-      <c r="H372" s="2"/>
-      <c r="I372" s="2"/>
-    </row>
-    <row r="373" spans="1:9">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-      <c r="H373" s="2"/>
-      <c r="I373" s="2"/>
-    </row>
-    <row r="374" spans="1:9">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
-      <c r="F374" s="2"/>
-      <c r="G374" s="2"/>
-      <c r="H374" s="2"/>
-      <c r="I374" s="2"/>
-    </row>
-    <row r="375" spans="1:9">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-      <c r="E375" s="2"/>
-      <c r="F375" s="2"/>
-      <c r="G375" s="2"/>
-      <c r="H375" s="2"/>
-      <c r="I375" s="2"/>
-    </row>
-    <row r="376" spans="1:9">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
-      <c r="G376" s="2"/>
-      <c r="H376" s="2"/>
-      <c r="I376" s="2"/>
-    </row>
-    <row r="377" spans="1:9">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
-      <c r="D377" s="2"/>
-      <c r="E377" s="2"/>
-      <c r="F377" s="2"/>
-      <c r="G377" s="2"/>
-      <c r="H377" s="2"/>
-      <c r="I377" s="2"/>
-    </row>
-    <row r="378" spans="1:9">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-      <c r="E378" s="2"/>
-      <c r="F378" s="2"/>
-      <c r="G378" s="2"/>
-      <c r="H378" s="2"/>
-      <c r="I378" s="2"/>
-    </row>
-    <row r="379" spans="1:9">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
-      <c r="H379" s="2"/>
-      <c r="I379" s="2"/>
-    </row>
-    <row r="380" spans="1:9">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2"/>
-      <c r="F380" s="2"/>
-      <c r="G380" s="2"/>
-      <c r="H380" s="2"/>
-      <c r="I380" s="2"/>
-    </row>
-    <row r="381" spans="1:9">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
-      <c r="E381" s="2"/>
-      <c r="F381" s="2"/>
-      <c r="G381" s="2"/>
-      <c r="H381" s="2"/>
-      <c r="I381" s="2"/>
-    </row>
-    <row r="382" spans="1:9">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
-      <c r="E382" s="2"/>
-      <c r="F382" s="2"/>
-      <c r="G382" s="2"/>
-      <c r="H382" s="2"/>
-      <c r="I382" s="2"/>
-    </row>
-    <row r="383" spans="1:9">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2"/>
-      <c r="F383" s="2"/>
-      <c r="G383" s="2"/>
-      <c r="H383" s="2"/>
-      <c r="I383" s="2"/>
-    </row>
-    <row r="384" spans="1:9">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
-      <c r="F384" s="2"/>
-      <c r="G384" s="2"/>
-      <c r="H384" s="2"/>
-      <c r="I384" s="2"/>
-    </row>
-    <row r="385" spans="1:9">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
-      <c r="E385" s="2"/>
-      <c r="F385" s="2"/>
-      <c r="G385" s="2"/>
-      <c r="H385" s="2"/>
-      <c r="I385" s="2"/>
-    </row>
-    <row r="386" spans="1:9">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-      <c r="H386" s="2"/>
-      <c r="I386" s="2"/>
-    </row>
-    <row r="387" spans="1:9">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-      <c r="E387" s="2"/>
-      <c r="F387" s="2"/>
-      <c r="G387" s="2"/>
-      <c r="H387" s="2"/>
-      <c r="I387" s="2"/>
-    </row>
-    <row r="388" spans="1:9">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-      <c r="D388" s="2"/>
-      <c r="E388" s="2"/>
-      <c r="F388" s="2"/>
-      <c r="G388" s="2"/>
-      <c r="H388" s="2"/>
-      <c r="I388" s="2"/>
-    </row>
-    <row r="389" spans="1:9">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-      <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
-      <c r="G389" s="2"/>
-      <c r="H389" s="2"/>
-      <c r="I389" s="2"/>
-    </row>
-    <row r="390" spans="1:9">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-      <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
-      <c r="H390" s="2"/>
-      <c r="I390" s="2"/>
-    </row>
-    <row r="391" spans="1:9">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2"/>
-      <c r="F391" s="2"/>
-      <c r="G391" s="2"/>
-      <c r="H391" s="2"/>
-      <c r="I391" s="2"/>
-    </row>
-    <row r="392" spans="1:9">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-      <c r="E392" s="2"/>
-      <c r="F392" s="2"/>
-      <c r="G392" s="2"/>
-      <c r="H392" s="2"/>
-      <c r="I392" s="2"/>
-    </row>
-    <row r="393" spans="1:9">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-      <c r="E393" s="2"/>
-      <c r="F393" s="2"/>
-      <c r="G393" s="2"/>
-      <c r="H393" s="2"/>
-      <c r="I393" s="2"/>
-    </row>
-    <row r="394" spans="1:9">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-      <c r="H394" s="2"/>
-      <c r="I394" s="2"/>
-    </row>
-    <row r="395" spans="1:9">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-      <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
-      <c r="G395" s="2"/>
-      <c r="H395" s="2"/>
-      <c r="I395" s="2"/>
-    </row>
-    <row r="396" spans="1:9">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
-      <c r="E396" s="2"/>
-      <c r="F396" s="2"/>
-      <c r="G396" s="2"/>
-      <c r="H396" s="2"/>
-      <c r="I396" s="2"/>
-    </row>
-    <row r="397" spans="1:9">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
-      <c r="F397" s="2"/>
-      <c r="G397" s="2"/>
-      <c r="H397" s="2"/>
-      <c r="I397" s="2"/>
-    </row>
-    <row r="398" spans="1:9">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
-      <c r="F398" s="2"/>
-      <c r="G398" s="2"/>
-      <c r="H398" s="2"/>
-      <c r="I398" s="2"/>
-    </row>
-    <row r="399" spans="1:9">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="2"/>
-      <c r="F399" s="2"/>
-      <c r="G399" s="2"/>
-      <c r="H399" s="2"/>
-      <c r="I399" s="2"/>
-    </row>
-    <row r="400" spans="1:9">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
-      <c r="E400" s="2"/>
-      <c r="F400" s="2"/>
-      <c r="G400" s="2"/>
-      <c r="H400" s="2"/>
-      <c r="I400" s="2"/>
-    </row>
-    <row r="401" spans="1:9">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
-      <c r="E401" s="2"/>
-      <c r="F401" s="2"/>
-      <c r="G401" s="2"/>
-      <c r="H401" s="2"/>
-      <c r="I401" s="2"/>
-    </row>
-    <row r="402" spans="1:9">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
-      <c r="E402" s="2"/>
-      <c r="F402" s="2"/>
-      <c r="G402" s="2"/>
-      <c r="H402" s="2"/>
-      <c r="I402" s="2"/>
-    </row>
-    <row r="403" spans="1:9">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
-      <c r="F403" s="2"/>
-      <c r="G403" s="2"/>
-      <c r="H403" s="2"/>
-      <c r="I403" s="2"/>
-    </row>
-    <row r="404" spans="1:9">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
-      <c r="F404" s="2"/>
-      <c r="G404" s="2"/>
-      <c r="H404" s="2"/>
-      <c r="I404" s="2"/>
-    </row>
-    <row r="405" spans="1:9">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
-      <c r="E405" s="2"/>
-      <c r="F405" s="2"/>
-      <c r="G405" s="2"/>
-      <c r="H405" s="2"/>
-      <c r="I405" s="2"/>
-    </row>
-    <row r="406" spans="1:9">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-      <c r="E406" s="2"/>
-      <c r="F406" s="2"/>
-      <c r="G406" s="2"/>
-      <c r="H406" s="2"/>
-      <c r="I406" s="2"/>
-    </row>
-    <row r="407" spans="1:9">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
-      <c r="D407" s="2"/>
-      <c r="E407" s="2"/>
-      <c r="F407" s="2"/>
-      <c r="G407" s="2"/>
-      <c r="H407" s="2"/>
-      <c r="I407" s="2"/>
-    </row>
-    <row r="408" spans="1:9">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
-      <c r="E408" s="2"/>
-      <c r="F408" s="2"/>
-      <c r="G408" s="2"/>
-      <c r="H408" s="2"/>
-      <c r="I408" s="2"/>
-    </row>
-    <row r="409" spans="1:9">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
-      <c r="E409" s="2"/>
-      <c r="F409" s="2"/>
-      <c r="G409" s="2"/>
-      <c r="H409" s="2"/>
-      <c r="I409" s="2"/>
-    </row>
-    <row r="410" spans="1:9">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
-      <c r="E410" s="2"/>
-      <c r="F410" s="2"/>
-      <c r="G410" s="2"/>
-      <c r="H410" s="2"/>
-      <c r="I410" s="2"/>
-    </row>
-    <row r="411" spans="1:9">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-      <c r="E411" s="2"/>
-      <c r="F411" s="2"/>
-      <c r="G411" s="2"/>
-      <c r="H411" s="2"/>
-      <c r="I411" s="2"/>
-    </row>
-    <row r="412" spans="1:9">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
-      <c r="E412" s="2"/>
-      <c r="F412" s="2"/>
-      <c r="G412" s="2"/>
-      <c r="H412" s="2"/>
-      <c r="I412" s="2"/>
-    </row>
-    <row r="413" spans="1:9">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
-      <c r="E413" s="2"/>
-      <c r="F413" s="2"/>
-      <c r="G413" s="2"/>
-      <c r="H413" s="2"/>
-      <c r="I413" s="2"/>
-    </row>
-    <row r="414" spans="1:9">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
-      <c r="E414" s="2"/>
-      <c r="F414" s="2"/>
-      <c r="G414" s="2"/>
-      <c r="H414" s="2"/>
-      <c r="I414" s="2"/>
-    </row>
-    <row r="415" spans="1:9">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
-      <c r="F415" s="2"/>
-      <c r="G415" s="2"/>
-      <c r="H415" s="2"/>
-      <c r="I415" s="2"/>
-    </row>
-    <row r="416" spans="1:9">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2"/>
-      <c r="I416" s="2"/>
-    </row>
-    <row r="417" spans="1:9">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-      <c r="H417" s="2"/>
-      <c r="I417" s="2"/>
-    </row>
-    <row r="418" spans="1:9">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="2"/>
-    </row>
-    <row r="419" spans="1:9">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-    </row>
-    <row r="420" spans="1:9">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
-      <c r="H420" s="2"/>
-      <c r="I420" s="2"/>
-    </row>
-    <row r="421" spans="1:9">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
-      <c r="F421" s="2"/>
-      <c r="G421" s="2"/>
-      <c r="H421" s="2"/>
-      <c r="I421" s="2"/>
-    </row>
-    <row r="422" spans="1:9">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
-      <c r="H422" s="2"/>
-      <c r="I422" s="2"/>
-    </row>
-    <row r="423" spans="1:9">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
-      <c r="H423" s="2"/>
-      <c r="I423" s="2"/>
-    </row>
-    <row r="424" spans="1:9">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-    </row>
-    <row r="425" spans="1:9">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-    </row>
-    <row r="426" spans="1:9">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
-      <c r="H426" s="2"/>
-      <c r="I426" s="2"/>
-    </row>
-    <row r="427" spans="1:9">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-      <c r="H427" s="2"/>
-      <c r="I427" s="2"/>
-    </row>
-    <row r="428" spans="1:9">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
-      <c r="I428" s="2"/>
-    </row>
-    <row r="429" spans="1:9">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-      <c r="I429" s="2"/>
-    </row>
-    <row r="430" spans="1:9">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
-      <c r="H430" s="2"/>
-      <c r="I430" s="2"/>
-    </row>
-    <row r="431" spans="1:9">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-      <c r="E431" s="2"/>
-      <c r="F431" s="2"/>
-      <c r="G431" s="2"/>
-      <c r="H431" s="2"/>
-      <c r="I431" s="2"/>
-    </row>
-    <row r="432" spans="1:9">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
-      <c r="F432" s="2"/>
-      <c r="G432" s="2"/>
-      <c r="H432" s="2"/>
-      <c r="I432" s="2"/>
-    </row>
-    <row r="433" spans="1:9">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
-      <c r="F433" s="2"/>
-      <c r="G433" s="2"/>
-      <c r="H433" s="2"/>
-      <c r="I433" s="2"/>
-    </row>
-    <row r="434" spans="1:9">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
-      <c r="G434" s="2"/>
-      <c r="H434" s="2"/>
-      <c r="I434" s="2"/>
-    </row>
-    <row r="435" spans="1:9">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-      <c r="H435" s="2"/>
-      <c r="I435" s="2"/>
-    </row>
-    <row r="436" spans="1:9">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="2"/>
-    </row>
-    <row r="437" spans="1:9">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
-      <c r="E437" s="2"/>
-      <c r="F437" s="2"/>
-      <c r="G437" s="2"/>
-      <c r="H437" s="2"/>
-      <c r="I437" s="2"/>
-    </row>
-    <row r="438" spans="1:9">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-      <c r="E438" s="2"/>
-      <c r="F438" s="2"/>
-      <c r="G438" s="2"/>
-      <c r="H438" s="2"/>
-      <c r="I438" s="2"/>
-    </row>
-    <row r="439" spans="1:9">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
-      <c r="E439" s="2"/>
-      <c r="F439" s="2"/>
-      <c r="G439" s="2"/>
-      <c r="H439" s="2"/>
-      <c r="I439" s="2"/>
-    </row>
-    <row r="440" spans="1:9">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
-      <c r="E440" s="2"/>
-      <c r="F440" s="2"/>
-      <c r="G440" s="2"/>
-      <c r="H440" s="2"/>
-      <c r="I440" s="2"/>
-    </row>
-    <row r="441" spans="1:9">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
-      <c r="E441" s="2"/>
-      <c r="F441" s="2"/>
-      <c r="G441" s="2"/>
-      <c r="H441" s="2"/>
-      <c r="I441" s="2"/>
-    </row>
-    <row r="442" spans="1:9">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-      <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
-      <c r="H442" s="2"/>
-      <c r="I442" s="2"/>
-    </row>
-    <row r="443" spans="1:9">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-      <c r="E443" s="2"/>
-      <c r="F443" s="2"/>
-      <c r="G443" s="2"/>
-      <c r="H443" s="2"/>
-      <c r="I443" s="2"/>
-    </row>
-    <row r="444" spans="1:9">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
-      <c r="E444" s="2"/>
-      <c r="F444" s="2"/>
-      <c r="G444" s="2"/>
-      <c r="H444" s="2"/>
-      <c r="I444" s="2"/>
-    </row>
-    <row r="445" spans="1:9">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
-      <c r="E445" s="2"/>
-      <c r="F445" s="2"/>
-      <c r="G445" s="2"/>
-      <c r="H445" s="2"/>
-      <c r="I445" s="2"/>
-    </row>
-    <row r="446" spans="1:9">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
-      <c r="E446" s="2"/>
-      <c r="F446" s="2"/>
-      <c r="G446" s="2"/>
-      <c r="H446" s="2"/>
-      <c r="I446" s="2"/>
-    </row>
-    <row r="447" spans="1:9">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="2"/>
-      <c r="H447" s="2"/>
-      <c r="I447" s="2"/>
-    </row>
-    <row r="448" spans="1:9">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
-      <c r="E448" s="2"/>
-      <c r="F448" s="2"/>
-      <c r="G448" s="2"/>
-      <c r="H448" s="2"/>
-      <c r="I448" s="2"/>
-    </row>
-    <row r="449" spans="1:9">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="2"/>
-      <c r="F449" s="2"/>
-      <c r="G449" s="2"/>
-      <c r="H449" s="2"/>
-      <c r="I449" s="2"/>
-    </row>
-    <row r="450" spans="1:9">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-      <c r="E450" s="2"/>
-      <c r="F450" s="2"/>
-      <c r="G450" s="2"/>
-      <c r="H450" s="2"/>
-      <c r="I450" s="2"/>
-    </row>
-    <row r="451" spans="1:9">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
-      <c r="E451" s="2"/>
-      <c r="F451" s="2"/>
-      <c r="G451" s="2"/>
-      <c r="H451" s="2"/>
-      <c r="I451" s="2"/>
-    </row>
-    <row r="452" spans="1:9">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
-      <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
-      <c r="H452" s="2"/>
-      <c r="I452" s="2"/>
-    </row>
-    <row r="453" spans="1:9">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
-      <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
-      <c r="G453" s="2"/>
-      <c r="H453" s="2"/>
-      <c r="I453" s="2"/>
-    </row>
-    <row r="454" spans="1:9">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
-      <c r="E454" s="2"/>
-      <c r="F454" s="2"/>
-      <c r="G454" s="2"/>
-      <c r="H454" s="2"/>
-      <c r="I454" s="2"/>
-    </row>
-    <row r="455" spans="1:9">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
-      <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-      <c r="H455" s="2"/>
-      <c r="I455" s="2"/>
-    </row>
-    <row r="456" spans="1:9">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-      <c r="H456" s="2"/>
-      <c r="I456" s="2"/>
-    </row>
-    <row r="457" spans="1:9">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-      <c r="E457" s="2"/>
-      <c r="F457" s="2"/>
-      <c r="G457" s="2"/>
-      <c r="H457" s="2"/>
-      <c r="I457" s="2"/>
-    </row>
-    <row r="458" spans="1:9">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-      <c r="E458" s="2"/>
-      <c r="F458" s="2"/>
-      <c r="G458" s="2"/>
-      <c r="H458" s="2"/>
-      <c r="I458" s="2"/>
-    </row>
-    <row r="459" spans="1:9">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
-      <c r="H459" s="2"/>
-      <c r="I459" s="2"/>
-    </row>
-    <row r="460" spans="1:9">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
-      <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
-      <c r="H460" s="2"/>
-      <c r="I460" s="2"/>
-    </row>
+      <c r="B289" s="21"/>
+      <c r="C289" s="22"/>
+      <c r="D289" s="22"/>
+      <c r="E289" s="22"/>
+      <c r="F289" s="22"/>
+      <c r="G289" s="22"/>
+      <c r="H289" s="22"/>
+      <c r="I289" s="23"/>
+    </row>
+    <row r="292" hidden="1"/>
+    <row r="293" hidden="1"/>
+    <row r="294" hidden="1"/>
+    <row r="295" hidden="1"/>
+    <row r="296" hidden="1"/>
+    <row r="297" hidden="1"/>
+    <row r="298" hidden="1"/>
+    <row r="299" hidden="1"/>
+    <row r="300" hidden="1"/>
+    <row r="301" hidden="1"/>
+    <row r="302" hidden="1"/>
+    <row r="303" hidden="1"/>
+    <row r="304" hidden="1"/>
+    <row r="305" hidden="1"/>
+    <row r="306" hidden="1"/>
+    <row r="307" hidden="1"/>
+    <row r="308" hidden="1"/>
+    <row r="309" hidden="1"/>
+    <row r="310" hidden="1"/>
+    <row r="311" hidden="1"/>
+    <row r="312" hidden="1"/>
+    <row r="313" hidden="1"/>
+    <row r="314" hidden="1"/>
+    <row r="315" hidden="1"/>
+    <row r="316" hidden="1"/>
+    <row r="317" hidden="1"/>
+    <row r="318" hidden="1"/>
+    <row r="319" hidden="1"/>
+    <row r="320" hidden="1"/>
+    <row r="321" hidden="1"/>
+    <row r="322" hidden="1"/>
+    <row r="323" hidden="1"/>
+    <row r="324" hidden="1"/>
+    <row r="325" hidden="1"/>
+    <row r="326" hidden="1"/>
+    <row r="327" hidden="1"/>
+    <row r="328" hidden="1"/>
+    <row r="329" hidden="1"/>
+    <row r="330" hidden="1"/>
+    <row r="331" hidden="1"/>
+    <row r="332" hidden="1"/>
+    <row r="333" hidden="1"/>
+    <row r="334" hidden="1"/>
+    <row r="335" hidden="1"/>
+    <row r="336" hidden="1"/>
+    <row r="337" hidden="1"/>
+    <row r="338" hidden="1"/>
+    <row r="339" hidden="1"/>
+    <row r="340" hidden="1"/>
+    <row r="341" hidden="1"/>
+    <row r="342" hidden="1"/>
+    <row r="343" hidden="1"/>
+    <row r="344" hidden="1"/>
+    <row r="345" hidden="1"/>
+    <row r="346" hidden="1"/>
+    <row r="347" hidden="1"/>
+    <row r="348" hidden="1"/>
+    <row r="349" hidden="1"/>
+    <row r="350" hidden="1"/>
+    <row r="351" hidden="1"/>
+    <row r="352" hidden="1"/>
+    <row r="353" hidden="1"/>
+    <row r="354" hidden="1"/>
+    <row r="355" hidden="1"/>
+    <row r="356" hidden="1"/>
+    <row r="357" hidden="1"/>
+    <row r="358" hidden="1"/>
+    <row r="359" hidden="1"/>
+    <row r="360" hidden="1"/>
+    <row r="361" hidden="1"/>
+    <row r="362" hidden="1"/>
+    <row r="363" hidden="1"/>
+    <row r="364" hidden="1"/>
+    <row r="365" hidden="1"/>
+    <row r="366" hidden="1"/>
+    <row r="367" hidden="1"/>
+    <row r="368" hidden="1"/>
+    <row r="369" hidden="1"/>
+    <row r="370" hidden="1"/>
+    <row r="371" hidden="1"/>
+    <row r="372" hidden="1"/>
+    <row r="373" hidden="1"/>
+    <row r="374" hidden="1"/>
+    <row r="375" hidden="1"/>
+    <row r="376" hidden="1"/>
+    <row r="377" hidden="1"/>
+    <row r="378" hidden="1"/>
+    <row r="379" hidden="1"/>
+    <row r="380" hidden="1"/>
+    <row r="381" hidden="1"/>
+    <row r="382" hidden="1"/>
+    <row r="383" hidden="1"/>
+    <row r="384" hidden="1"/>
+    <row r="385" hidden="1"/>
+    <row r="386" hidden="1"/>
+    <row r="387" hidden="1"/>
+    <row r="388" hidden="1"/>
+    <row r="389" hidden="1"/>
+    <row r="390" hidden="1"/>
+    <row r="391" hidden="1"/>
+    <row r="392" hidden="1"/>
+    <row r="393" hidden="1"/>
+    <row r="394" hidden="1"/>
+    <row r="395" hidden="1"/>
+    <row r="396" hidden="1"/>
+    <row r="397" hidden="1"/>
+    <row r="398" hidden="1"/>
+    <row r="399" hidden="1"/>
+    <row r="400" hidden="1"/>
+    <row r="401" hidden="1"/>
+    <row r="402" hidden="1"/>
+    <row r="403" hidden="1"/>
+    <row r="404" hidden="1"/>
+    <row r="405" hidden="1"/>
+    <row r="406" hidden="1"/>
+    <row r="407" hidden="1"/>
+    <row r="408" hidden="1"/>
+    <row r="409" hidden="1"/>
+    <row r="410" hidden="1"/>
+    <row r="411" hidden="1"/>
+    <row r="412" hidden="1"/>
+    <row r="413" hidden="1"/>
+    <row r="414" hidden="1"/>
+    <row r="415" hidden="1"/>
+    <row r="416" hidden="1"/>
+    <row r="417" hidden="1"/>
+    <row r="418" hidden="1"/>
+    <row r="419" hidden="1"/>
+    <row r="420" hidden="1"/>
+    <row r="421" hidden="1"/>
+    <row r="422" hidden="1"/>
+    <row r="423" hidden="1"/>
+    <row r="424" hidden="1"/>
+    <row r="425" hidden="1"/>
+    <row r="426" hidden="1"/>
+    <row r="427" hidden="1"/>
+    <row r="428" hidden="1"/>
+    <row r="429" hidden="1"/>
+    <row r="430" hidden="1"/>
+    <row r="431" hidden="1"/>
+    <row r="432" hidden="1"/>
+    <row r="433" hidden="1"/>
+    <row r="434" hidden="1"/>
+    <row r="435" hidden="1"/>
+    <row r="436" hidden="1"/>
+    <row r="437" hidden="1"/>
+    <row r="438" hidden="1"/>
+    <row r="439" hidden="1"/>
+    <row r="440" hidden="1"/>
+    <row r="441" hidden="1"/>
+    <row r="442" hidden="1"/>
+    <row r="443" hidden="1"/>
+    <row r="444" hidden="1"/>
+    <row r="445" hidden="1"/>
+    <row r="446" hidden="1"/>
+    <row r="447" hidden="1"/>
+    <row r="448" hidden="1"/>
+    <row r="449" hidden="1"/>
+    <row r="450" hidden="1"/>
+    <row r="451" hidden="1"/>
+    <row r="452" hidden="1"/>
+    <row r="453" hidden="1"/>
+    <row r="454" hidden="1"/>
+    <row r="455" hidden="1"/>
+    <row r="456" hidden="1"/>
+    <row r="457" hidden="1"/>
+    <row r="458" hidden="1"/>
+    <row r="459" hidden="1"/>
+    <row r="460" hidden="1"/>
+    <row r="461" hidden="1"/>
+    <row r="462" hidden="1"/>
+    <row r="463" hidden="1"/>
+    <row r="464" hidden="1"/>
+    <row r="465" hidden="1"/>
+    <row r="466" hidden="1"/>
+    <row r="467" hidden="1"/>
+    <row r="468" hidden="1"/>
+    <row r="469" hidden="1"/>
+    <row r="470" hidden="1"/>
+    <row r="471" hidden="1"/>
+    <row r="472" hidden="1"/>
+    <row r="473" hidden="1"/>
+    <row r="474" hidden="1"/>
+    <row r="475" hidden="1"/>
+    <row r="476" hidden="1"/>
+    <row r="477" hidden="1"/>
+    <row r="478" hidden="1"/>
+    <row r="479" hidden="1"/>
+    <row r="480" hidden="1"/>
+    <row r="481" hidden="1"/>
+    <row r="482" hidden="1"/>
+    <row r="483" hidden="1"/>
+    <row r="484" hidden="1"/>
+    <row r="485" hidden="1"/>
+    <row r="486" hidden="1"/>
+    <row r="487" hidden="1"/>
+    <row r="488" hidden="1"/>
+    <row r="489" hidden="1"/>
+    <row r="490" hidden="1"/>
+    <row r="491" hidden="1"/>
+    <row r="492" hidden="1"/>
+    <row r="493" hidden="1"/>
+    <row r="494" hidden="1"/>
+    <row r="495" hidden="1"/>
+    <row r="496" hidden="1"/>
+    <row r="497" hidden="1"/>
+    <row r="498" hidden="1"/>
+    <row r="499" hidden="1"/>
+    <row r="500" hidden="1"/>
+    <row r="501" hidden="1"/>
+    <row r="502" hidden="1"/>
+    <row r="503" hidden="1"/>
+    <row r="504" hidden="1"/>
+    <row r="505" hidden="1"/>
+    <row r="506" hidden="1"/>
+    <row r="507" hidden="1"/>
+    <row r="508" hidden="1"/>
+    <row r="509" hidden="1"/>
+    <row r="510" hidden="1"/>
+    <row r="511" hidden="1"/>
+    <row r="512" hidden="1"/>
+    <row r="513" hidden="1"/>
+    <row r="514" hidden="1"/>
+    <row r="515" hidden="1"/>
+    <row r="516" hidden="1"/>
+    <row r="517" hidden="1"/>
+    <row r="518" hidden="1"/>
+    <row r="519" hidden="1"/>
+    <row r="520" hidden="1"/>
+    <row r="521" hidden="1"/>
+    <row r="522" hidden="1"/>
+    <row r="523" hidden="1"/>
+    <row r="524" hidden="1"/>
+    <row r="525" hidden="1"/>
+    <row r="526" hidden="1"/>
+    <row r="527" hidden="1"/>
+    <row r="528" hidden="1"/>
+    <row r="529" hidden="1"/>
+    <row r="530" hidden="1"/>
+    <row r="531" hidden="1"/>
+    <row r="532" hidden="1"/>
+    <row r="533" hidden="1"/>
+    <row r="534" hidden="1"/>
+    <row r="535" hidden="1"/>
+    <row r="536" hidden="1"/>
+    <row r="537" hidden="1"/>
+    <row r="538" hidden="1"/>
+    <row r="539" hidden="1"/>
+    <row r="540" hidden="1"/>
+    <row r="541" hidden="1"/>
+    <row r="542" hidden="1"/>
   </sheetData>
   <mergeCells count="210">
     <mergeCell ref="A1:I1"/>
@@ -9865,81 +8720,81 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:I28"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="A62:I62"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:I77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="A84:I84"/>
     <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:I85"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:I99"/>
-    <mergeCell ref="B100:I100"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:I87"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:I100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:I101"/>
+    <mergeCell ref="B102:I102"/>
+    <mergeCell ref="A105:I105"/>
     <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:I106"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:I116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:I118"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:I108"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:I118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:I119"/>
+    <mergeCell ref="B120:I120"/>
+    <mergeCell ref="A123:I123"/>
     <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:I124"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:I135"/>
-    <mergeCell ref="B136:I136"/>
-    <mergeCell ref="A140:I140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:I126"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:I136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:I137"/>
+    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="A141:I141"/>
     <mergeCell ref="A142:B142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
     <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:I143"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:I149"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:I143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:I144"/>
     <mergeCell ref="A150:B150"/>
     <mergeCell ref="C150:I150"/>
-    <mergeCell ref="B151:I151"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:I151"/>
+    <mergeCell ref="B152:I152"/>
     <mergeCell ref="A155:I155"/>
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="E156:F156"/>
@@ -10024,34 +8879,34 @@
     <mergeCell ref="A255:B255"/>
     <mergeCell ref="C255:I255"/>
     <mergeCell ref="B256:I256"/>
-    <mergeCell ref="A313:I313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="E314:F314"/>
-    <mergeCell ref="G314:H314"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="D315:E315"/>
-    <mergeCell ref="F315:I315"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="C316:I316"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="C324:I324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="C325:I325"/>
-    <mergeCell ref="B326:I326"/>
-    <mergeCell ref="A329:I329"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="G330:H330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="F331:I331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="C332:I332"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="C341:I341"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="B343:I343"/>
+    <mergeCell ref="A259:I259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="F261:I261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="C262:I262"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C270:I270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:I271"/>
+    <mergeCell ref="B272:I272"/>
+    <mergeCell ref="A275:I275"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="G276:H276"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="F277:I277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="C278:I278"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="C287:I287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="C288:I288"/>
+    <mergeCell ref="B289:I289"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
